--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ccl21b-Ccr7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ccl21b-Ccr7.xlsx
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Ccr7</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G2">
+        <v>0.004739</v>
+      </c>
+      <c r="H2">
+        <v>0.014217</v>
+      </c>
+      <c r="I2">
+        <v>0.02588570741885795</v>
+      </c>
+      <c r="J2">
+        <v>0.02588570741885795</v>
+      </c>
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="L2">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G2">
-        <v>0.134289</v>
-      </c>
-      <c r="H2">
-        <v>0.402867</v>
-      </c>
-      <c r="I2">
-        <v>0.3678949098679525</v>
-      </c>
-      <c r="J2">
-        <v>0.3678949098679524</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M2">
-        <v>0.1277553333333333</v>
+        <v>0.186073</v>
       </c>
       <c r="N2">
-        <v>0.383266</v>
+        <v>0.558219</v>
       </c>
       <c r="O2">
-        <v>0.045165256693518</v>
+        <v>0.08082280080999586</v>
       </c>
       <c r="P2">
-        <v>0.04516525669351801</v>
+        <v>0.08082280080999586</v>
       </c>
       <c r="Q2">
-        <v>0.017156135958</v>
+        <v>0.0008817999470000001</v>
       </c>
       <c r="R2">
-        <v>0.154405223622</v>
+        <v>0.007936199523000001</v>
       </c>
       <c r="S2">
-        <v>0.01661606804042474</v>
+        <v>0.002092155374540188</v>
       </c>
       <c r="T2">
-        <v>0.01661606804042474</v>
+        <v>0.002092155374540188</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,75 +584,75 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.134289</v>
+        <v>0.004739</v>
       </c>
       <c r="H3">
-        <v>0.402867</v>
+        <v>0.014217</v>
       </c>
       <c r="I3">
-        <v>0.3678949098679525</v>
+        <v>0.02588570741885795</v>
       </c>
       <c r="J3">
-        <v>0.3678949098679524</v>
+        <v>0.02588570741885795</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.186073</v>
+        <v>2.116161</v>
       </c>
       <c r="N3">
-        <v>0.558219</v>
+        <v>6.348483</v>
       </c>
       <c r="O3">
-        <v>0.06578226199610435</v>
+        <v>0.9191771991900042</v>
       </c>
       <c r="P3">
-        <v>0.06578226199610435</v>
+        <v>0.9191771991900041</v>
       </c>
       <c r="Q3">
-        <v>0.02498755709700001</v>
+        <v>0.010028486979</v>
       </c>
       <c r="R3">
-        <v>0.224888013873</v>
+        <v>0.090256382811</v>
       </c>
       <c r="S3">
-        <v>0.02420095934796684</v>
+        <v>0.02379355204431776</v>
       </c>
       <c r="T3">
-        <v>0.02420095934796684</v>
+        <v>0.02379355204431776</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,40 +667,40 @@
         <v>0.402867</v>
       </c>
       <c r="I4">
-        <v>0.3678949098679525</v>
+        <v>0.733523056250478</v>
       </c>
       <c r="J4">
-        <v>0.3678949098679524</v>
+        <v>0.733523056250478</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>2.514791333333334</v>
+        <v>0.186073</v>
       </c>
       <c r="N4">
-        <v>7.544374</v>
+        <v>0.558219</v>
       </c>
       <c r="O4">
-        <v>0.8890524813103776</v>
+        <v>0.08082280080999586</v>
       </c>
       <c r="P4">
-        <v>0.8890524813103777</v>
+        <v>0.08082280080999586</v>
       </c>
       <c r="Q4">
-        <v>0.3377088133620001</v>
+        <v>0.02498755709700001</v>
       </c>
       <c r="R4">
-        <v>3.039379320258</v>
+        <v>0.224888013873</v>
       </c>
       <c r="S4">
-        <v>0.3270778824795609</v>
+        <v>0.05928538786487177</v>
       </c>
       <c r="T4">
-        <v>0.3270778824795609</v>
+        <v>0.05928538786487177</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,93 +708,93 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.134289</v>
+      </c>
+      <c r="H5">
+        <v>0.402867</v>
+      </c>
+      <c r="I5">
+        <v>0.733523056250478</v>
+      </c>
+      <c r="J5">
+        <v>0.733523056250478</v>
+      </c>
+      <c r="K5">
         <v>3</v>
       </c>
-      <c r="F5">
+      <c r="L5">
         <v>1</v>
       </c>
-      <c r="G5">
-        <v>0.230731</v>
-      </c>
-      <c r="H5">
-        <v>0.6921930000000001</v>
-      </c>
-      <c r="I5">
-        <v>0.6321050901320476</v>
-      </c>
-      <c r="J5">
-        <v>0.6321050901320475</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M5">
-        <v>0.1277553333333333</v>
+        <v>2.116161</v>
       </c>
       <c r="N5">
-        <v>0.383266</v>
+        <v>6.348483</v>
       </c>
       <c r="O5">
-        <v>0.045165256693518</v>
+        <v>0.9191771991900042</v>
       </c>
       <c r="P5">
-        <v>0.04516525669351801</v>
+        <v>0.9191771991900041</v>
       </c>
       <c r="Q5">
-        <v>0.02947711581533333</v>
+        <v>0.2841771445290001</v>
       </c>
       <c r="R5">
-        <v>0.265294042338</v>
+        <v>2.557594300761</v>
       </c>
       <c r="S5">
-        <v>0.02854918865309326</v>
+        <v>0.6742376683856063</v>
       </c>
       <c r="T5">
-        <v>0.02854918865309326</v>
+        <v>0.6742376683856062</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.230731</v>
+        <v>0.04404599999999999</v>
       </c>
       <c r="H6">
-        <v>0.6921930000000001</v>
+        <v>0.132138</v>
       </c>
       <c r="I6">
-        <v>0.6321050901320476</v>
+        <v>0.2405912363306641</v>
       </c>
       <c r="J6">
-        <v>0.6321050901320475</v>
+        <v>0.2405912363306641</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,54 +809,54 @@
         <v>0.558219</v>
       </c>
       <c r="O6">
-        <v>0.06578226199610435</v>
+        <v>0.08082280080999586</v>
       </c>
       <c r="P6">
-        <v>0.06578226199610435</v>
+        <v>0.08082280080999586</v>
       </c>
       <c r="Q6">
-        <v>0.04293280936300001</v>
+        <v>0.008195771358</v>
       </c>
       <c r="R6">
-        <v>0.386395284267</v>
+        <v>0.07376194222199998</v>
       </c>
       <c r="S6">
-        <v>0.04158130264813751</v>
+        <v>0.0194452575705839</v>
       </c>
       <c r="T6">
-        <v>0.0415813026481375</v>
+        <v>0.0194452575705839</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.230731</v>
+        <v>0.04404599999999999</v>
       </c>
       <c r="H7">
-        <v>0.6921930000000001</v>
+        <v>0.132138</v>
       </c>
       <c r="I7">
-        <v>0.6321050901320476</v>
+        <v>0.2405912363306641</v>
       </c>
       <c r="J7">
-        <v>0.6321050901320475</v>
+        <v>0.2405912363306641</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.514791333333334</v>
+        <v>2.116161</v>
       </c>
       <c r="N7">
-        <v>7.544374</v>
+        <v>6.348483</v>
       </c>
       <c r="O7">
-        <v>0.8890524813103776</v>
+        <v>0.9191771991900042</v>
       </c>
       <c r="P7">
-        <v>0.8890524813103777</v>
+        <v>0.9191771991900041</v>
       </c>
       <c r="Q7">
-        <v>0.5802403191313334</v>
+        <v>0.09320842740599999</v>
       </c>
       <c r="R7">
-        <v>5.222162872182</v>
+        <v>0.8388758466539998</v>
       </c>
       <c r="S7">
-        <v>0.5619745988308168</v>
+        <v>0.2211459787600802</v>
       </c>
       <c r="T7">
-        <v>0.5619745988308168</v>
+        <v>0.2211459787600802</v>
       </c>
     </row>
   </sheetData>
